--- a/model convertion.xlsx
+++ b/model convertion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="440" windowWidth="28800" windowHeight="17060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="4060" yWindow="440" windowWidth="28800" windowHeight="17060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t xml:space="preserve">discrete- final    </t>
   </si>
@@ -335,6 +335,27 @@
   </si>
   <si>
     <t>Marginal change in odd</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>b_all</t>
+  </si>
+  <si>
+    <t>log(odd)</t>
+  </si>
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>prob0</t>
+  </si>
+  <si>
+    <t>prob1</t>
+  </si>
+  <si>
+    <t>marginal prob</t>
   </si>
 </sst>
 </file>
@@ -714,15 +735,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15:P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -735,8 +756,31 @@
       <c r="G1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -755,18 +799,73 @@
         <f>E3-1</f>
         <v>-0.25248432198190895</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0.64462610363243689</v>
+      </c>
+      <c r="I3">
+        <v>0.57554220897120312</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>D3*J3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUM(K3:K51)</f>
+        <v>2.113</v>
+      </c>
+      <c r="M3">
+        <f>EXP(L3)</f>
+        <v>8.2730231627112616</v>
+      </c>
+      <c r="N3">
+        <f>M3/(1+M3)</f>
+        <v>0.89216030387789758</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P6" si="0">I3-H3</f>
+        <v>-6.9083894661233769E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>-2.5999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <f t="shared" ref="K4:K51" si="1">D4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -774,24 +873,49 @@
         <v>-0.24399999999999999</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E4:E51" si="0">EXP(D7)</f>
+        <f t="shared" ref="E4:E51" si="2">EXP(D7)</f>
         <v>0.7834876342628625</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F4:F51" si="1">E7/(1+E7)-0.5</f>
+        <f t="shared" ref="F4:F51" si="3">E7/(1+E7)-0.5</f>
         <v>-6.0699149682252984E-2</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G4:G51" si="2">E7-1</f>
+        <f t="shared" ref="G4:G51" si="4">E7-1</f>
         <v>-0.2165123657371375</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>0.64462610363243689</v>
+      </c>
+      <c r="I7">
+        <v>0.58698127768760988</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:P8" si="5">I7-H7</f>
+        <v>-5.7644825944827005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8">
         <v>-2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -799,24 +923,49 @@
         <v>-0.42299999999999999</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65507863311180625</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10420090018311928</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.34492136688819375</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0.69146985431793084</v>
+      </c>
+      <c r="I9">
+        <v>0.59483749089011495</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-0.21149999999999999</v>
+      </c>
+      <c r="P9">
+        <f>I9-H9</f>
+        <v>-9.6632363427815893E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D10">
         <v>-7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P51" si="6">I10-H10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -824,24 +973,49 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0757305369147034</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8241899795738092E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5730536914703439E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0.63622112801980901</v>
+      </c>
+      <c r="I11">
+        <v>0.6529428177055896</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>1.6721689685780583E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>-3.5999999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -849,24 +1023,49 @@
         <v>-0.432</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64920937668514744</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10635114870009088</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.35079062331485256</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>8.0579448550207183E-2</v>
+      </c>
+      <c r="I13">
+        <v>5.3834651551617152E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>-2.6744796998590031E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D14">
         <v>-3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -874,24 +1073,49 @@
         <v>-0.10100000000000001</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.90393303288586413</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.5228557269297291E-2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-9.6066967114135871E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0.54078418603188383</v>
+      </c>
+      <c r="I15">
+        <v>0.51561991572301569</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>-2.5164270308868142E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16">
         <v>-2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -899,24 +1123,49 @@
         <v>-9.4E-2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.91028276224076698</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.3482711442675219E-2</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.9717237759233015E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>0.64462610363243689</v>
+      </c>
+      <c r="I17">
+        <v>0.62281177196458415</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>-2.1814331667852738E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D18">
         <v>-1.6E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -924,24 +1173,49 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0491706553244706</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.1997696530717916E-2</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.9170655324470625E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0.64462610363243689</v>
+      </c>
+      <c r="I19">
+        <v>0.65554421128168883</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>1.091810764925194E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D20">
         <v>-1.6E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -949,24 +1223,49 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2956338048280485</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4390453783675805E-2</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29563380482804846</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>0.61443657414126329</v>
+      </c>
+      <c r="I21">
+        <v>0.67370709945452134</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>5.9270525313258049E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>-3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -974,24 +1273,43 @@
         <v>0.09</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0941742837052104</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.248482479180014E-2</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.4174283705210415E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D24">
         <v>-1.2E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1002,20 +1320,39 @@
         <v>0.502</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.16577896138482023</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.498</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D26">
         <v>-0.10199999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1026,20 +1363,39 @@
         <v>0.64600000000000002</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10753341433778857</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.35399999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D28">
         <v>-0.11899999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1050,20 +1406,39 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.45785440613026818</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.95599999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D30">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1074,20 +1449,39 @@
         <v>0.21</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.32644628099173556</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.79</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D32">
         <v>-8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -1098,20 +1492,39 @@
         <v>0.3</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.26923076923076927</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D34">
         <v>-0.127</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1122,20 +1535,39 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.43370681605975725</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.92900000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D36">
         <v>-2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -1146,20 +1578,39 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.43545369504209541</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.93100000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D38">
         <v>-0.25700000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1170,20 +1621,39 @@
         <v>0.59899999999999998</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.12539086929330834</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.40100000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D40">
         <v>-0.40799999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1194,20 +1664,39 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.48231827111984282</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.98199999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>30</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D42">
         <v>-8.9999999999999993E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1218,20 +1707,39 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.4569377990430622</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.95499999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D44">
         <v>-7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -1242,20 +1750,39 @@
         <v>0.24</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.30645161290322581</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.76</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D46">
         <v>-0.122</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1266,20 +1793,45 @@
         <v>-0.71299999999999997</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.984320557491289</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.7130000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>0.61443657414126329</v>
+      </c>
+      <c r="I47">
+        <v>0.57517572745068735</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>-3.9260846690575946E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D48">
         <v>-0.24199999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -1290,20 +1842,45 @@
         <v>1.097</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3128278493085408E-2</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.6999999999999975E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>0.61443657414126329</v>
+      </c>
+      <c r="I49">
+        <v>0.89216030387789758</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>1.097</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0.27772372973663428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D50">
         <v>-0.38100000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1311,26 +1888,37 @@
         <v>0.192</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2116705169649005</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.7853085561627484E-2</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21167051696490047</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0.192</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1344,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G5:G53"/>
     </sheetView>
   </sheetViews>
